--- a/data/toxicities/raw/Jester_etal_2009.xlsx
+++ b/data/toxicities/raw/Jester_etal_2009.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/toxicities/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDC84B7-EA65-C043-9C0D-AB74090BDF7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB78E45A-3F63-FF49-A3FF-EC2E88119ADC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20440" yWindow="6780" windowWidth="27640" windowHeight="16940" xr2:uid="{1EC26B8C-878D-774E-859B-01B83F9048F5}"/>
+    <workbookView xWindow="20000" yWindow="6680" windowWidth="27640" windowHeight="16940" xr2:uid="{1EC26B8C-878D-774E-859B-01B83F9048F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
